--- a/Spreadsheet.xlsx
+++ b/Spreadsheet.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="9990" yWindow="0" windowWidth="27690" windowHeight="12795" activeTab="3" xr2:uid="{FD9C3489-AB8B-42CA-8AEA-AA90E3DC7812}"/>
+    <workbookView xWindow="11100" yWindow="0" windowWidth="27690" windowHeight="12795" activeTab="1" xr2:uid="{FD9C3489-AB8B-42CA-8AEA-AA90E3DC7812}"/>
   </bookViews>
   <sheets>
     <sheet name="WeaponDataBase" sheetId="3" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="198">
   <si>
     <t>Name</t>
   </si>
@@ -641,6 +641,18 @@
   </si>
   <si>
     <t>Lose 2</t>
+  </si>
+  <si>
+    <t>Right Gladius</t>
+  </si>
+  <si>
+    <t>Right Pugio</t>
+  </si>
+  <si>
+    <t>Left Gladius</t>
+  </si>
+  <si>
+    <t>Left Pugio</t>
   </si>
 </sst>
 </file>
@@ -1240,7 +1252,7 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>102</v>
+        <v>194</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>102</v>
@@ -1263,7 +1275,7 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>104</v>
+        <v>195</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>104</v>
@@ -1292,7 +1304,7 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>103</v>
+        <v>196</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>103</v>
@@ -1321,7 +1333,7 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>105</v>
+        <v>197</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>105</v>
@@ -1780,8 +1792,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D34CFD6-FA9F-47DF-BA55-85431D3DECC4}">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:F25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2501,7 +2513,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B26E43C-F28A-4795-9809-076F3CD0CF59}">
   <dimension ref="A1:H66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="G58" sqref="G58"/>
     </sheetView>
   </sheetViews>
